--- a/xlsx/左派和右派_intext.xlsx
+++ b/xlsx/左派和右派_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t>左派和右派</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -353,31 +353,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>政治光譜</t>
+    <t>政治光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B0%8D%E6%B4%BE</t>
   </si>
   <si>
-    <t>反對派</t>
+    <t>反对派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%9A%87%E9%BB%A8</t>
   </si>
   <si>
-    <t>保皇黨</t>
+    <t>保皇党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A9%E8%AF%81%E6%B3%95</t>
@@ -401,91 +395,88 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%88%86%E5%B1%A4</t>
   </si>
   <si>
-    <t>社會分層</t>
+    <t>社会分层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E6%AD%A5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>進步主義</t>
+    <t>进步主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>世界主義</t>
+    <t>世界主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會自由主義</t>
+    <t>社会自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民主社會主義</t>
+    <t>民主社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>世俗主義</t>
+    <t>世俗主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>平等主義</t>
+    <t>平等主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>左翼民粹主義</t>
+    <t>左翼民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反帝國主義</t>
+    <t>反帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反資本主義</t>
+    <t>反资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守主義</t>
+    <t>保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%8A%A8%E4%B8%BB%E4%B9%89</t>
@@ -497,67 +488,64 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E7%BF%BC%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>右翼民粹主義</t>
+    <t>右翼民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代自由主義</t>
+    <t>现代自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E5%B0%94%E6%96%AF</t>
@@ -569,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%AD%89</t>
@@ -587,19 +575,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%98%AD%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>諾蘭曲線</t>
+    <t>诺兰曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社團主義</t>
+    <t>社团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -635,19 +623,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
@@ -695,13 +683,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%B8%BB%E4%B9%89</t>
@@ -713,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國家主義</t>
+    <t>国家主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>愛國主義</t>
+    <t>爱国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -737,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產黨</t>
+    <t>共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>無產階級專政</t>
+    <t>无产阶级专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
@@ -755,19 +740,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>大不列顛島</t>
+    <t>大不列颠岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%8F%9A%E6%B4%BE</t>
   </si>
   <si>
-    <t>斐揚派</t>
+    <t>斐扬派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>國民大會</t>
+    <t>国民大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E4%BC%A6%E7%89%B9%E6%B4%BE</t>
@@ -797,25 +782,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BE%96%C2%B7%E6%B3%A2%E6%8B%BF%E5%B7%B4</t>
   </si>
   <si>
-    <t>拿破侖·波拿巴</t>
+    <t>拿破仑·波拿巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴伐利亞</t>
+    <t>巴伐利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E4%BC%9A%E8%AE%AE</t>
@@ -839,19 +824,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%B8%81%E5%B0%BC%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>薩丁尼亞王國</t>
+    <t>萨丁尼亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>俄國革命</t>
+    <t>俄国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%BB%80%E7%BB%B4%E5%85%8B</t>
@@ -863,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%81%94%E6%9E%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>史達林主義</t>
+    <t>史达林主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -887,13 +872,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B7%A6%E6%B4%BE</t>
@@ -911,19 +896,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B</t>
   </si>
   <si>
-    <t>寮國</t>
+    <t>寮国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -935,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民粹主義</t>
+    <t>民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>種族主義</t>
+    <t>种族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -953,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>地方主義</t>
+    <t>地方主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
@@ -965,13 +950,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%86%E7%B4%8D%C2%B7%E9%9B%B7%E6%A0%B9</t>
   </si>
   <si>
-    <t>隆納·雷根</t>
+    <t>隆纳·雷根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E5%88%A9%E7%89%B9%C2%B7%E6%92%92%E5%88%87%E5%B0%94</t>
@@ -989,13 +974,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%A8</t>
   </si>
   <si>
-    <t>綠黨</t>
+    <t>绿党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%A7%8D%E9%81%93%E8%B7%AF</t>
@@ -1025,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%8B%A2%E5%8A%9B</t>
   </si>
   <si>
-    <t>第三勢力</t>
+    <t>第三势力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A</t>
@@ -3026,7 +3011,7 @@
         <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -3052,10 +3037,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>8</v>
@@ -3081,10 +3066,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3110,10 +3095,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3139,10 +3124,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3168,10 +3153,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3197,10 +3182,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3255,10 +3240,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3284,10 +3269,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3313,10 +3298,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3342,10 +3327,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>11</v>
@@ -3371,10 +3356,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3400,10 +3385,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3429,10 +3414,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>13</v>
@@ -3458,10 +3443,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3487,10 +3472,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3516,10 +3501,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3545,10 +3530,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3574,10 +3559,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3603,10 +3588,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3632,10 +3617,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3661,10 +3646,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3690,10 +3675,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -3719,10 +3704,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3748,10 +3733,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -3777,10 +3762,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -3806,10 +3791,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3835,10 +3820,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -3864,10 +3849,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3893,10 +3878,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3922,10 +3907,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3951,10 +3936,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G89" t="n">
         <v>15</v>
@@ -4009,10 +3994,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4038,10 +4023,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4067,10 +4052,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4096,10 +4081,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4125,10 +4110,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4154,10 +4139,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4212,10 +4197,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4241,10 +4226,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4270,10 +4255,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>5</v>
@@ -4299,10 +4284,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4328,10 +4313,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4357,10 +4342,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4386,10 +4371,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>9</v>
@@ -4415,10 +4400,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>39</v>
@@ -4444,10 +4429,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4473,10 +4458,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -4502,10 +4487,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4531,10 +4516,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4560,10 +4545,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4589,10 +4574,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4618,10 +4603,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4647,10 +4632,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4676,10 +4661,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -4705,10 +4690,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4734,10 +4719,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4763,10 +4748,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4792,10 +4777,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -4821,10 +4806,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4850,10 +4835,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4879,10 +4864,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4908,10 +4893,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4937,10 +4922,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4966,10 +4951,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4995,10 +4980,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5024,10 +5009,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5053,10 +5038,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5082,10 +5067,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5111,10 +5096,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5140,10 +5125,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5169,10 +5154,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5198,10 +5183,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5227,10 +5212,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F133" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5256,10 +5241,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5285,10 +5270,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5314,10 +5299,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5343,10 +5328,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5372,10 +5357,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5401,10 +5386,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5430,10 +5415,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5459,10 +5444,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5488,10 +5473,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5517,10 +5502,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5546,10 +5531,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F144" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G144" t="n">
         <v>8</v>
@@ -5575,10 +5560,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5604,10 +5589,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5633,10 +5618,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5662,10 +5647,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5691,10 +5676,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5720,10 +5705,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5749,10 +5734,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5778,10 +5763,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5807,10 +5792,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -5836,10 +5821,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5865,10 +5850,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5894,10 +5879,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5923,10 +5908,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5952,10 +5937,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5981,10 +5966,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6010,10 +5995,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -6039,10 +6024,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6068,10 +6053,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6097,10 +6082,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6126,10 +6111,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6155,10 +6140,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6184,10 +6169,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6213,10 +6198,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6242,10 +6227,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6271,10 +6256,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6300,10 +6285,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6329,10 +6314,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6358,10 +6343,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6387,10 +6372,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6416,10 +6401,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6445,10 +6430,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6474,10 +6459,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
